--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -5,18 +5,20 @@
   <sheets>
     <sheet state="visible" name="Attendance Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Attendance Sheet'!$A$6:$AA$78</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="2/U5CYUay4mztF2FmPlUFPUaY7/XQpspR8huyXVjgXY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CQry8Ct1vO63ZiHizKI/KNqLQtpyEaWTW5ulBaRwFpg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -883,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -972,6 +974,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1200,12 +1205,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="2" width="19.63"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="7.25"/>
-    <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="1" max="1" width="6.38"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
+    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="4" max="4" width="5.13"/>
+    <col customWidth="1" min="5" max="5" width="9.5"/>
+    <col customWidth="1" min="6" max="6" width="10.25"/>
+    <col customWidth="1" min="7" max="15" width="5.13"/>
+    <col customWidth="1" min="16" max="26" width="5.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1596,11 +1603,11 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1611,11 +1618,21 @@
       <c r="I7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="J7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
@@ -1650,7 +1667,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1661,11 +1678,21 @@
       <c r="I8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="J8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
@@ -1696,11 +1723,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1711,11 +1738,21 @@
       <c r="I9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="J9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
@@ -1750,22 +1787,32 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="J10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
@@ -1800,7 +1847,7 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1811,11 +1858,21 @@
       <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="J11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
@@ -1850,7 +1907,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1861,11 +1918,21 @@
       <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="J12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="33"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -1900,7 +1967,7 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -1911,11 +1978,21 @@
       <c r="I13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="J13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -1946,13 +2023,13 @@
       </c>
       <c r="E14" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="26" t="s">
@@ -1961,11 +2038,21 @@
       <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="J14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -2000,7 +2087,7 @@
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2011,11 +2098,21 @@
       <c r="I15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="J15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -2050,9 +2147,9 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="26" t="s">
@@ -2061,11 +2158,21 @@
       <c r="I16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="J16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
@@ -2096,13 +2203,13 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="26" t="s">
@@ -2111,11 +2218,21 @@
       <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="J17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
@@ -2146,11 +2263,11 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2161,11 +2278,21 @@
       <c r="I18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="J18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
@@ -2196,11 +2323,11 @@
       </c>
       <c r="E19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2211,11 +2338,21 @@
       <c r="I19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="J19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="33"/>
@@ -2250,7 +2387,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2261,11 +2398,21 @@
       <c r="I20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="J20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
@@ -2296,11 +2443,11 @@
       </c>
       <c r="E21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2311,11 +2458,21 @@
       <c r="I21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="J21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
@@ -2346,11 +2503,11 @@
       </c>
       <c r="E22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2361,11 +2518,21 @@
       <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="J22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
@@ -2396,26 +2563,36 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="J23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
@@ -2446,11 +2623,11 @@
       </c>
       <c r="E24" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2461,11 +2638,21 @@
       <c r="I24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="J24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
@@ -2496,11 +2683,11 @@
       </c>
       <c r="E25" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2511,11 +2698,21 @@
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="J25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
@@ -2550,7 +2747,7 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2561,11 +2758,21 @@
       <c r="I26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="J26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
@@ -2596,11 +2803,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2611,11 +2818,21 @@
       <c r="I27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="J27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -2646,26 +2863,36 @@
       </c>
       <c r="E28" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="J28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -2700,7 +2927,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -2711,11 +2938,21 @@
       <c r="I29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="J29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
@@ -2746,26 +2983,36 @@
       </c>
       <c r="E30" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="J30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O30" s="33"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
@@ -2796,11 +3043,11 @@
       </c>
       <c r="E31" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -2811,11 +3058,21 @@
       <c r="I31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+      <c r="J31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
@@ -2846,13 +3103,13 @@
       </c>
       <c r="E32" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G32" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="26" t="s">
@@ -2861,11 +3118,21 @@
       <c r="I32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
+      <c r="J32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
@@ -2900,7 +3167,7 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -2911,11 +3178,21 @@
       <c r="I33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="J33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="33"/>
@@ -2946,13 +3223,13 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G34" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="26" t="s">
@@ -2961,11 +3238,21 @@
       <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+      <c r="J34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O34" s="33"/>
       <c r="P34" s="33"/>
       <c r="Q34" s="33"/>
@@ -3000,7 +3287,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3011,11 +3298,21 @@
       <c r="I35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="J35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
@@ -3050,7 +3347,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3061,11 +3358,21 @@
       <c r="I36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
+      <c r="J36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
@@ -3096,11 +3403,11 @@
       </c>
       <c r="E37" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3111,11 +3418,21 @@
       <c r="I37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+      <c r="J37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O37" s="33"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="33"/>
@@ -3146,11 +3463,11 @@
       </c>
       <c r="E38" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3161,11 +3478,21 @@
       <c r="I38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
+      <c r="J38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O38" s="33"/>
       <c r="P38" s="33"/>
       <c r="Q38" s="33"/>
@@ -3200,7 +3527,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3211,11 +3538,21 @@
       <c r="I39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
+      <c r="J39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O39" s="33"/>
       <c r="P39" s="33"/>
       <c r="Q39" s="33"/>
@@ -3246,26 +3583,36 @@
       </c>
       <c r="E40" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="34" t="s">
+      <c r="G40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
+      <c r="J40" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="O40" s="33"/>
       <c r="P40" s="33"/>
       <c r="Q40" s="33"/>
@@ -3300,22 +3647,32 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
+      <c r="J41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33"/>
@@ -3350,22 +3707,32 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
+      <c r="J42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O42" s="33"/>
       <c r="P42" s="33"/>
       <c r="Q42" s="33"/>
@@ -3396,11 +3763,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3411,11 +3778,21 @@
       <c r="I43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
+      <c r="J43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
@@ -3450,7 +3827,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -3461,11 +3838,21 @@
       <c r="I44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
+      <c r="J44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
       <c r="Q44" s="33"/>
@@ -3500,7 +3887,7 @@
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -3511,11 +3898,21 @@
       <c r="I45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
+      <c r="J45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33"/>
@@ -3546,11 +3943,11 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -3561,11 +3958,21 @@
       <c r="I46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
+      <c r="J46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O46" s="33"/>
       <c r="P46" s="33"/>
       <c r="Q46" s="33"/>
@@ -3596,13 +4003,13 @@
       </c>
       <c r="E47" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G47" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="26" t="s">
@@ -3611,11 +4018,21 @@
       <c r="I47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
+      <c r="J47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O47" s="33"/>
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
@@ -3650,7 +4067,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -3661,11 +4078,21 @@
       <c r="I48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
+      <c r="J48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
@@ -3700,9 +4127,9 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G49" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H49" s="26" t="s">
@@ -3711,11 +4138,21 @@
       <c r="I49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
+      <c r="J49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
@@ -3746,11 +4183,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -3761,11 +4198,21 @@
       <c r="I50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
+      <c r="J50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
@@ -3800,22 +4247,32 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
+      <c r="J51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O51" s="33"/>
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
@@ -3850,7 +4307,7 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -3861,11 +4318,21 @@
       <c r="I52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
+      <c r="J52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O52" s="33"/>
       <c r="P52" s="33"/>
       <c r="Q52" s="33"/>
@@ -3896,11 +4363,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -3911,11 +4378,21 @@
       <c r="I53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
+      <c r="J53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O53" s="33"/>
       <c r="P53" s="33"/>
       <c r="Q53" s="33"/>
@@ -3946,11 +4423,11 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -3961,11 +4438,21 @@
       <c r="I54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
+      <c r="J54" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O54" s="33"/>
       <c r="P54" s="33"/>
       <c r="Q54" s="33"/>
@@ -3996,13 +4483,13 @@
       </c>
       <c r="E55" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G55" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="26" t="s">
@@ -4011,11 +4498,21 @@
       <c r="I55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
+      <c r="J55" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O55" s="33"/>
       <c r="P55" s="33"/>
       <c r="Q55" s="33"/>
@@ -4046,13 +4543,13 @@
       </c>
       <c r="E56" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="26" t="s">
@@ -4061,11 +4558,21 @@
       <c r="I56" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
+      <c r="J56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O56" s="33"/>
       <c r="P56" s="33"/>
       <c r="Q56" s="33"/>
@@ -4100,7 +4607,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4111,11 +4618,21 @@
       <c r="I57" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
+      <c r="J57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O57" s="33"/>
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
@@ -4146,11 +4663,11 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>20</v>
@@ -4161,11 +4678,21 @@
       <c r="I58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
+      <c r="J58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O58" s="33"/>
       <c r="P58" s="33"/>
       <c r="Q58" s="33"/>
@@ -4196,13 +4723,13 @@
       </c>
       <c r="E59" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G59" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H59" s="26" t="s">
@@ -4211,11 +4738,21 @@
       <c r="I59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
+      <c r="J59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O59" s="33"/>
       <c r="P59" s="33"/>
       <c r="Q59" s="33"/>
@@ -4250,7 +4787,7 @@
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -4261,11 +4798,21 @@
       <c r="I60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
+      <c r="J60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O60" s="33"/>
       <c r="P60" s="33"/>
       <c r="Q60" s="33"/>
@@ -4296,13 +4843,13 @@
       </c>
       <c r="E61" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G61" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="26" t="s">
@@ -4311,11 +4858,21 @@
       <c r="I61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
+      <c r="J61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
@@ -4346,11 +4903,11 @@
       </c>
       <c r="E62" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -4361,11 +4918,21 @@
       <c r="I62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
+      <c r="J62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O62" s="33"/>
       <c r="P62" s="33"/>
       <c r="Q62" s="33"/>
@@ -4400,7 +4967,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -4411,11 +4978,21 @@
       <c r="I63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
+      <c r="J63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O63" s="33"/>
       <c r="P63" s="33"/>
       <c r="Q63" s="33"/>
@@ -4450,22 +5027,32 @@
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H64" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
+      <c r="J64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
       <c r="Q64" s="33"/>
@@ -4496,13 +5083,13 @@
       </c>
       <c r="E65" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G65" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="26" t="s">
@@ -4511,11 +5098,21 @@
       <c r="I65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
+      <c r="J65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="O65" s="33"/>
       <c r="P65" s="33"/>
       <c r="Q65" s="33"/>
@@ -4550,7 +5147,7 @@
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -4561,11 +5158,21 @@
       <c r="I66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
+      <c r="J66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O66" s="33"/>
       <c r="P66" s="33"/>
       <c r="Q66" s="33"/>
@@ -4600,9 +5207,9 @@
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G67" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="35" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="26" t="s">
@@ -4611,11 +5218,21 @@
       <c r="I67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
+      <c r="J67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O67" s="33"/>
       <c r="P67" s="33"/>
       <c r="Q67" s="33"/>
@@ -4650,22 +5267,32 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
+      <c r="J68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O68" s="33"/>
       <c r="P68" s="33"/>
       <c r="Q68" s="33"/>
@@ -4696,11 +5323,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -4711,11 +5338,21 @@
       <c r="I69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
+      <c r="J69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O69" s="33"/>
       <c r="P69" s="33"/>
       <c r="Q69" s="33"/>
@@ -4746,11 +5383,11 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -4761,11 +5398,21 @@
       <c r="I70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
+      <c r="J70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O70" s="33"/>
       <c r="P70" s="33"/>
       <c r="Q70" s="33"/>
@@ -4800,7 +5447,7 @@
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -4811,11 +5458,21 @@
       <c r="I71" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
+      <c r="J71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O71" s="33"/>
       <c r="P71" s="33"/>
       <c r="Q71" s="33"/>
@@ -4846,26 +5503,36 @@
       </c>
       <c r="E72" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H72" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
+      <c r="J72" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O72" s="33"/>
       <c r="P72" s="33"/>
       <c r="Q72" s="33"/>
@@ -4896,26 +5563,36 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="34" t="s">
+      <c r="H73" s="35" t="s">
         <v>21</v>
       </c>
       <c r="I73" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
+      <c r="J73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O73" s="33"/>
       <c r="P73" s="33"/>
       <c r="Q73" s="33"/>
@@ -4946,11 +5623,11 @@
       </c>
       <c r="E74" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -4961,11 +5638,21 @@
       <c r="I74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
+      <c r="J74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
@@ -5000,7 +5687,7 @@
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -5011,11 +5698,21 @@
       <c r="I75" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
+      <c r="J75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
@@ -5046,11 +5743,11 @@
       </c>
       <c r="E76" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -5061,11 +5758,21 @@
       <c r="I76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
+      <c r="J76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O76" s="33"/>
       <c r="P76" s="33"/>
       <c r="Q76" s="33"/>
@@ -5096,11 +5803,11 @@
       </c>
       <c r="E77" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -5111,11 +5818,21 @@
       <c r="I77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
+      <c r="J77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O77" s="33"/>
       <c r="P77" s="33"/>
       <c r="Q77" s="33"/>
@@ -5146,11 +5863,11 @@
       </c>
       <c r="E78" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -5161,11 +5878,21 @@
       <c r="I78" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
+      <c r="J78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="O78" s="33"/>
       <c r="P78" s="33"/>
       <c r="Q78" s="33"/>
@@ -5187,7 +5914,7 @@
       </c>
       <c r="B79" s="30"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="35"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5196,7 +5923,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="36"/>
+      <c r="G79" s="37"/>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
       <c r="J79" s="33"/>
@@ -5234,7 +5961,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="36"/>
+      <c r="G80" s="37"/>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
@@ -5272,7 +5999,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="36"/>
+      <c r="G81" s="37"/>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
@@ -5310,7 +6037,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="36"/>
+      <c r="G82" s="37"/>
       <c r="H82" s="33"/>
       <c r="I82" s="33"/>
       <c r="J82" s="33"/>
@@ -5348,7 +6075,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="36"/>
+      <c r="G83" s="37"/>
       <c r="H83" s="33"/>
       <c r="I83" s="33"/>
       <c r="J83" s="33"/>
@@ -5386,7 +6113,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="36"/>
+      <c r="G84" s="37"/>
       <c r="H84" s="33"/>
       <c r="I84" s="33"/>
       <c r="J84" s="33"/>
@@ -5413,8 +6140,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5424,7 +6151,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="36"/>
+      <c r="G85" s="37"/>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
       <c r="J85" s="33"/>
@@ -5451,8 +6178,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5462,7 +6189,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="36"/>
+      <c r="G86" s="37"/>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
@@ -5489,8 +6216,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5500,7 +6227,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="36"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
@@ -5527,8 +6254,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5538,7 +6265,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="36"/>
+      <c r="G88" s="37"/>
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
@@ -5565,8 +6292,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5576,7 +6303,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="36"/>
+      <c r="G89" s="37"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
@@ -5603,8 +6330,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5614,7 +6341,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="36"/>
+      <c r="G90" s="37"/>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
@@ -5641,8 +6368,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5652,7 +6379,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="36"/>
+      <c r="G91" s="37"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
@@ -5679,8 +6406,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5690,7 +6417,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="36"/>
+      <c r="G92" s="37"/>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
@@ -5717,8 +6444,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5728,7 +6455,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="36"/>
+      <c r="G93" s="37"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
@@ -5755,8 +6482,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5766,7 +6493,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="36"/>
+      <c r="G94" s="37"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
@@ -5793,8 +6520,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24" t="str">
         <f t="shared" si="1"/>
@@ -5804,7 +6531,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="36"/>
+      <c r="G95" s="37"/>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
@@ -6732,6 +7459,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$6:$AA$78"/>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1633,8 +1633,12 @@
       <c r="N7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
@@ -1667,7 +1671,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1693,8 +1697,12 @@
       <c r="N8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
+      <c r="O8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
@@ -1723,11 +1731,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1753,8 +1761,12 @@
       <c r="N9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
+      <c r="O9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
@@ -1783,11 +1795,11 @@
       </c>
       <c r="E10" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1813,8 +1825,12 @@
       <c r="N10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
+      <c r="O10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
@@ -1847,7 +1863,7 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1873,8 +1889,12 @@
       <c r="N11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
+      <c r="O11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
@@ -1907,7 +1927,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1933,8 +1953,12 @@
       <c r="N12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+      <c r="O12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
@@ -1967,7 +1991,7 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -1993,8 +2017,12 @@
       <c r="N13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
+      <c r="O13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
@@ -2027,7 +2055,7 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2053,8 +2081,12 @@
       <c r="N14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
+      <c r="O14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
@@ -2087,7 +2119,7 @@
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2113,8 +2145,12 @@
       <c r="N15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
+      <c r="O15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="33"/>
       <c r="R15" s="33"/>
       <c r="S15" s="33"/>
@@ -2147,7 +2183,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2173,8 +2209,12 @@
       <c r="N16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
+      <c r="O16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="33"/>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
@@ -2207,7 +2247,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2233,8 +2273,12 @@
       <c r="N17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+      <c r="O17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="33"/>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
@@ -2263,12 +2307,12 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F18" s="32">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
       </c>
@@ -2293,8 +2337,12 @@
       <c r="N18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
+      <c r="O18" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q18" s="33"/>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
@@ -2327,7 +2375,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2353,8 +2401,12 @@
       <c r="N19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+      <c r="O19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
@@ -2387,7 +2439,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2413,8 +2465,12 @@
       <c r="N20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
+      <c r="O20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
@@ -2447,7 +2503,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2473,8 +2529,12 @@
       <c r="N21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
+      <c r="O21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
@@ -2507,7 +2567,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2533,8 +2593,12 @@
       <c r="N22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
+      <c r="O22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
@@ -2563,7 +2627,7 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
@@ -2593,8 +2657,12 @@
       <c r="N23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="O23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
@@ -2623,7 +2691,7 @@
       </c>
       <c r="E24" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
@@ -2653,8 +2721,12 @@
       <c r="N24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="O24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
@@ -2683,11 +2755,11 @@
       </c>
       <c r="E25" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2713,8 +2785,12 @@
       <c r="N25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
+      <c r="O25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
@@ -2747,7 +2823,7 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2773,8 +2849,12 @@
       <c r="N26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
+      <c r="O26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="33"/>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
@@ -2803,11 +2883,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2833,8 +2913,12 @@
       <c r="N27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
+      <c r="O27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q27" s="33"/>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
@@ -2867,7 +2951,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -2893,8 +2977,12 @@
       <c r="N28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
+      <c r="O28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="33"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
@@ -2927,7 +3015,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -2953,8 +3041,12 @@
       <c r="N29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
+      <c r="O29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q29" s="33"/>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
@@ -2987,7 +3079,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3013,8 +3105,12 @@
       <c r="N30" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
+      <c r="O30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
@@ -3047,7 +3143,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3073,8 +3169,12 @@
       <c r="N31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
+      <c r="O31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
@@ -3103,11 +3203,11 @@
       </c>
       <c r="E32" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3133,8 +3233,12 @@
       <c r="N32" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
+      <c r="O32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="33"/>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
@@ -3163,11 +3267,11 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3193,8 +3297,12 @@
       <c r="N33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
+      <c r="O33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q33" s="33"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
@@ -3227,7 +3335,7 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3253,8 +3361,12 @@
       <c r="N34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
+      <c r="O34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="33"/>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
@@ -3283,7 +3395,7 @@
       </c>
       <c r="E35" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
@@ -3313,8 +3425,12 @@
       <c r="N35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
+      <c r="O35" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
@@ -3343,7 +3459,7 @@
       </c>
       <c r="E36" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
@@ -3373,8 +3489,12 @@
       <c r="N36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
+      <c r="O36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="33"/>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
@@ -3407,7 +3527,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3433,8 +3553,12 @@
       <c r="N37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
+      <c r="O37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
@@ -3467,7 +3591,7 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3493,8 +3617,12 @@
       <c r="N38" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
+      <c r="O38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
@@ -3523,11 +3651,11 @@
       </c>
       <c r="E39" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3553,8 +3681,12 @@
       <c r="N39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
+      <c r="O39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q39" s="33"/>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
@@ -3583,7 +3715,7 @@
       </c>
       <c r="E40" s="24">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
@@ -3613,8 +3745,12 @@
       <c r="N40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
+      <c r="O40" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q40" s="33"/>
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
@@ -3647,7 +3783,7 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3673,8 +3809,12 @@
       <c r="N41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
+      <c r="O41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="33"/>
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
@@ -3707,7 +3847,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -3733,8 +3873,12 @@
       <c r="N42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
+      <c r="O42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
@@ -3767,7 +3911,7 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3793,8 +3937,12 @@
       <c r="N43" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
+      <c r="O43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="33"/>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
@@ -3827,7 +3975,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -3853,8 +4001,12 @@
       <c r="N44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
+      <c r="O44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="33"/>
       <c r="R44" s="33"/>
       <c r="S44" s="33"/>
@@ -3883,11 +4035,11 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -3913,8 +4065,12 @@
       <c r="N45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
+      <c r="O45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="33"/>
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
@@ -3947,7 +4103,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -3973,8 +4129,12 @@
       <c r="N46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
+      <c r="O46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="33"/>
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
@@ -4007,7 +4167,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4033,8 +4193,12 @@
       <c r="N47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
+      <c r="O47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="33"/>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
@@ -4063,7 +4227,7 @@
       </c>
       <c r="E48" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
@@ -4093,8 +4257,12 @@
       <c r="N48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
+      <c r="O48" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q48" s="33"/>
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
@@ -4127,7 +4295,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4153,8 +4321,12 @@
       <c r="N49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
+      <c r="O49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="33"/>
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
@@ -4187,7 +4359,7 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4213,8 +4385,12 @@
       <c r="N50" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
+      <c r="O50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="33"/>
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
@@ -4247,7 +4423,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4273,8 +4449,12 @@
       <c r="N51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
+      <c r="O51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="33"/>
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
@@ -4307,7 +4487,7 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4333,8 +4513,12 @@
       <c r="N52" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
+      <c r="O52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="33"/>
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
@@ -4367,7 +4551,7 @@
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4393,8 +4577,12 @@
       <c r="N53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
+      <c r="O53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="33"/>
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
@@ -4427,7 +4615,7 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -4453,8 +4641,12 @@
       <c r="N54" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
+      <c r="O54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="33"/>
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
@@ -4487,7 +4679,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -4513,8 +4705,12 @@
       <c r="N55" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
+      <c r="O55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="33"/>
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
@@ -4543,11 +4739,11 @@
       </c>
       <c r="E56" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>21</v>
@@ -4573,8 +4769,12 @@
       <c r="N56" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
+      <c r="O56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="33"/>
       <c r="R56" s="33"/>
       <c r="S56" s="33"/>
@@ -4607,7 +4807,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4633,8 +4833,12 @@
       <c r="N57" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
+      <c r="O57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="33"/>
       <c r="R57" s="33"/>
       <c r="S57" s="33"/>
@@ -4667,7 +4871,7 @@
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>20</v>
@@ -4693,8 +4897,12 @@
       <c r="N58" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
+      <c r="O58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="33"/>
       <c r="R58" s="33"/>
       <c r="S58" s="33"/>
@@ -4727,7 +4935,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4753,8 +4961,12 @@
       <c r="N59" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
+      <c r="O59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="33"/>
       <c r="R59" s="33"/>
       <c r="S59" s="33"/>
@@ -4783,11 +4995,11 @@
       </c>
       <c r="E60" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -4813,8 +5025,12 @@
       <c r="N60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
+      <c r="O60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q60" s="33"/>
       <c r="R60" s="33"/>
       <c r="S60" s="33"/>
@@ -4847,7 +5063,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -4873,8 +5089,12 @@
       <c r="N61" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
+      <c r="O61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="33"/>
       <c r="R61" s="33"/>
       <c r="S61" s="33"/>
@@ -4907,7 +5127,7 @@
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -4933,8 +5153,12 @@
       <c r="N62" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
+      <c r="O62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="33"/>
       <c r="R62" s="33"/>
       <c r="S62" s="33"/>
@@ -4967,7 +5191,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -4993,8 +5217,12 @@
       <c r="N63" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
+      <c r="O63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="33"/>
       <c r="R63" s="33"/>
       <c r="S63" s="33"/>
@@ -5027,7 +5255,7 @@
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5053,8 +5281,12 @@
       <c r="N64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
+      <c r="O64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="33"/>
       <c r="R64" s="33"/>
       <c r="S64" s="33"/>
@@ -5083,11 +5315,11 @@
       </c>
       <c r="E65" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5113,8 +5345,12 @@
       <c r="N65" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
+      <c r="O65" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="33"/>
       <c r="R65" s="33"/>
       <c r="S65" s="33"/>
@@ -5143,11 +5379,11 @@
       </c>
       <c r="E66" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5173,8 +5409,12 @@
       <c r="N66" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
+      <c r="O66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="33"/>
       <c r="R66" s="33"/>
       <c r="S66" s="33"/>
@@ -5203,7 +5443,7 @@
       </c>
       <c r="E67" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
@@ -5233,8 +5473,12 @@
       <c r="N67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
+      <c r="O67" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="33"/>
       <c r="R67" s="33"/>
       <c r="S67" s="33"/>
@@ -5267,7 +5511,7 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5293,8 +5537,12 @@
       <c r="N68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
+      <c r="O68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="33"/>
       <c r="R68" s="33"/>
       <c r="S68" s="33"/>
@@ -5327,7 +5575,7 @@
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5353,8 +5601,12 @@
       <c r="N69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
+      <c r="O69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="33"/>
       <c r="R69" s="33"/>
       <c r="S69" s="33"/>
@@ -5387,7 +5639,7 @@
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5413,8 +5665,12 @@
       <c r="N70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
+      <c r="O70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="33"/>
       <c r="R70" s="33"/>
       <c r="S70" s="33"/>
@@ -5447,7 +5703,7 @@
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5473,8 +5729,12 @@
       <c r="N71" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
+      <c r="O71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="33"/>
       <c r="R71" s="33"/>
       <c r="S71" s="33"/>
@@ -5503,11 +5763,11 @@
       </c>
       <c r="E72" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
@@ -5533,8 +5793,12 @@
       <c r="N72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
+      <c r="O72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q72" s="33"/>
       <c r="R72" s="33"/>
       <c r="S72" s="33"/>
@@ -5563,11 +5827,11 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
@@ -5593,8 +5857,12 @@
       <c r="N73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
+      <c r="O73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q73" s="33"/>
       <c r="R73" s="33"/>
       <c r="S73" s="33"/>
@@ -5623,11 +5891,11 @@
       </c>
       <c r="E74" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -5653,8 +5921,12 @@
       <c r="N74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
+      <c r="O74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="Q74" s="33"/>
       <c r="R74" s="33"/>
       <c r="S74" s="33"/>
@@ -5687,7 +5959,7 @@
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -5713,8 +5985,12 @@
       <c r="N75" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
+      <c r="O75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="33"/>
       <c r="R75" s="33"/>
       <c r="S75" s="33"/>
@@ -5747,7 +6023,7 @@
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -5773,8 +6049,12 @@
       <c r="N76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
+      <c r="O76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="33"/>
       <c r="R76" s="33"/>
       <c r="S76" s="33"/>
@@ -5807,7 +6087,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -5833,8 +6113,12 @@
       <c r="N77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
+      <c r="O77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="33"/>
       <c r="R77" s="33"/>
       <c r="S77" s="33"/>
@@ -5867,7 +6151,7 @@
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -5893,8 +6177,12 @@
       <c r="N78" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
+      <c r="O78" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="33"/>
       <c r="R78" s="33"/>
       <c r="S78" s="33"/>

--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -973,10 +973,10 @@
     <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1603,11 +1603,11 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1639,8 +1639,12 @@
       <c r="P7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="Q7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
       <c r="U7" s="28"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1703,17 +1707,21 @@
       <c r="P8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="Q8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="29">
@@ -1735,7 +1743,7 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1752,7 +1760,7 @@
       <c r="K9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="26" t="s">
@@ -1761,23 +1769,27 @@
       <c r="N9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="Q9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="29">
@@ -1799,7 +1811,7 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1825,23 +1837,27 @@
       <c r="N10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="Q10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="29">
@@ -1863,7 +1879,7 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1895,17 +1911,21 @@
       <c r="P11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
+      <c r="Q11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="29">
@@ -1923,11 +1943,11 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1959,17 +1979,21 @@
       <c r="P12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="Q12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="29">
@@ -1991,7 +2015,7 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -2023,17 +2047,21 @@
       <c r="P13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
+      <c r="Q13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="29">
@@ -2055,7 +2083,7 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2072,7 +2100,7 @@
       <c r="K14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="26" t="s">
@@ -2087,17 +2115,21 @@
       <c r="P14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
+      <c r="Q14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="29">
@@ -2119,7 +2151,7 @@
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2151,17 +2183,21 @@
       <c r="P15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
+      <c r="Q15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="29">
@@ -2183,7 +2219,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2215,17 +2251,21 @@
       <c r="P16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
+      <c r="Q16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="29">
@@ -2243,11 +2283,11 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2264,7 +2304,7 @@
       <c r="K17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="26" t="s">
@@ -2279,17 +2319,21 @@
       <c r="P17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
+      <c r="Q17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="29">
@@ -2307,7 +2351,7 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
@@ -2328,32 +2372,36 @@
       <c r="K18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="L18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="29">
@@ -2375,7 +2423,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2395,7 +2443,7 @@
       <c r="L19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="33" t="s">
         <v>21</v>
       </c>
       <c r="N19" s="26" t="s">
@@ -2407,17 +2455,21 @@
       <c r="P19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
+      <c r="Q19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="29">
@@ -2439,7 +2491,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2471,17 +2523,21 @@
       <c r="P20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
+      <c r="Q20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="29">
@@ -2503,7 +2559,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2523,7 +2579,7 @@
       <c r="L21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="N21" s="26" t="s">
@@ -2535,17 +2591,21 @@
       <c r="P21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="Q21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="29">
@@ -2567,7 +2627,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2584,7 +2644,7 @@
       <c r="K22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="L22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="26" t="s">
@@ -2599,17 +2659,21 @@
       <c r="P22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
+      <c r="Q22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="29">
@@ -2627,12 +2691,12 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="32">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F23" s="32">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2712,7 @@
       <c r="K23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="26" t="s">
@@ -2657,23 +2721,27 @@
       <c r="N23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
+      <c r="O23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="29">
@@ -2695,7 +2763,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2718,26 +2786,30 @@
       <c r="M24" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
+      <c r="N24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="29">
@@ -2755,11 +2827,11 @@
       </c>
       <c r="E25" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2785,23 +2857,27 @@
       <c r="N25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
+      <c r="Q25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="29">
@@ -2823,7 +2899,7 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2855,17 +2931,21 @@
       <c r="P26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
+      <c r="Q26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="29">
@@ -2887,7 +2967,7 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -2916,20 +2996,24 @@
       <c r="O27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
+      <c r="P27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="29">
@@ -2951,7 +3035,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -2983,17 +3067,21 @@
       <c r="P28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
+      <c r="Q28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="29">
@@ -3015,7 +3103,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3047,17 +3135,21 @@
       <c r="P29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="Q29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="29">
@@ -3079,7 +3171,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3096,13 +3188,13 @@
       <c r="K30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O30" s="27" t="s">
@@ -3111,17 +3203,21 @@
       <c r="P30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
+      <c r="Q30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="29">
@@ -3143,7 +3239,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3163,10 +3259,10 @@
       <c r="L31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="34" t="s">
+      <c r="M31" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O31" s="27" t="s">
@@ -3175,17 +3271,21 @@
       <c r="P31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="Q31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="29">
@@ -3207,7 +3307,7 @@
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3230,26 +3330,30 @@
       <c r="M32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N32" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="34" t="s">
+      <c r="N32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="Q32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="29">
@@ -3267,7 +3371,7 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
@@ -3300,20 +3404,24 @@
       <c r="O33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
+      <c r="P33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="29">
@@ -3331,7 +3439,7 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
@@ -3352,7 +3460,7 @@
       <c r="K34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="34" t="s">
+      <c r="L34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M34" s="26" t="s">
@@ -3367,17 +3475,21 @@
       <c r="P34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
+      <c r="Q34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="29">
@@ -3399,7 +3511,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3425,23 +3537,27 @@
       <c r="N35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="O35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="29">
@@ -3463,7 +3579,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3489,23 +3605,27 @@
       <c r="N36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
+      <c r="O36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="29">
@@ -3523,11 +3643,11 @@
       </c>
       <c r="E37" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3550,7 +3670,7 @@
       <c r="M37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="27" t="s">
@@ -3559,17 +3679,21 @@
       <c r="P37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
+      <c r="Q37" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="29">
@@ -3591,7 +3715,7 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3611,10 +3735,10 @@
       <c r="L38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="34" t="s">
+      <c r="M38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="27" t="s">
@@ -3623,17 +3747,21 @@
       <c r="P38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
+      <c r="Q38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="29">
@@ -3655,7 +3783,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3684,20 +3812,24 @@
       <c r="O39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
+      <c r="P39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="29">
@@ -3719,7 +3851,7 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>21</v>
@@ -3736,32 +3868,36 @@
       <c r="K40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="34" t="s">
+      <c r="L40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="33" t="s">
         <v>21</v>
       </c>
       <c r="N40" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
+      <c r="O40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="29">
@@ -3779,11 +3915,11 @@
       </c>
       <c r="E41" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3815,17 +3951,21 @@
       <c r="P41" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
+      <c r="Q41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="29">
@@ -3847,7 +3987,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -3879,17 +4019,21 @@
       <c r="P42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
+      <c r="Q42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="29">
@@ -3911,7 +4055,7 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -3934,7 +4078,7 @@
       <c r="M43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="34" t="s">
+      <c r="N43" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="27" t="s">
@@ -3943,17 +4087,21 @@
       <c r="P43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
+      <c r="Q43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="29">
@@ -3975,7 +4123,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4007,17 +4155,21 @@
       <c r="P44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
+      <c r="Q44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="29">
@@ -4039,7 +4191,7 @@
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4068,20 +4220,24 @@
       <c r="O45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
+      <c r="P45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="29">
@@ -4099,11 +4255,11 @@
       </c>
       <c r="E46" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4120,7 +4276,7 @@
       <c r="K46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M46" s="26" t="s">
@@ -4135,17 +4291,21 @@
       <c r="P46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
+      <c r="Q46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="29">
@@ -4167,7 +4327,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4184,7 +4344,7 @@
       <c r="K47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="26" t="s">
@@ -4199,17 +4359,21 @@
       <c r="P47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
+      <c r="Q47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="29">
@@ -4231,7 +4395,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4257,23 +4421,27 @@
       <c r="N48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
+      <c r="O48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="29">
@@ -4295,7 +4463,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4327,17 +4495,21 @@
       <c r="P49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
+      <c r="Q49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="29">
@@ -4355,11 +4527,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4376,13 +4548,13 @@
       <c r="K50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="34" t="s">
+      <c r="L50" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N50" s="34" t="s">
+      <c r="N50" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="27" t="s">
@@ -4391,17 +4563,21 @@
       <c r="P50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
+      <c r="Q50" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="29">
@@ -4423,7 +4599,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4455,17 +4631,21 @@
       <c r="P51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
+      <c r="Q51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="29">
@@ -4483,11 +4663,11 @@
       </c>
       <c r="E52" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4519,17 +4699,21 @@
       <c r="P52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
+      <c r="Q52" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="29">
@@ -4547,11 +4731,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4568,7 +4752,7 @@
       <c r="K53" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L53" s="34" t="s">
+      <c r="L53" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M53" s="26" t="s">
@@ -4583,17 +4767,21 @@
       <c r="P53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
+      <c r="Q53" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="29">
@@ -4615,7 +4803,7 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -4647,17 +4835,21 @@
       <c r="P54" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
+      <c r="Q54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="29">
@@ -4679,7 +4871,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -4696,13 +4888,13 @@
       <c r="K55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="34" t="s">
+      <c r="L55" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M55" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="34" t="s">
+      <c r="N55" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="27" t="s">
@@ -4711,17 +4903,21 @@
       <c r="P55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
+      <c r="Q55" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="29">
@@ -4743,7 +4939,7 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>21</v>
@@ -4760,32 +4956,36 @@
       <c r="K56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L56" s="34" t="s">
+      <c r="L56" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M56" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O56" s="34" t="s">
+      <c r="N56" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="33"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
+      <c r="Q56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="29">
@@ -4807,7 +5007,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -4839,17 +5039,21 @@
       <c r="P57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="33"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
+      <c r="Q57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="29">
@@ -4867,11 +5071,11 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>20</v>
@@ -4903,17 +5107,21 @@
       <c r="P58" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
+      <c r="Q58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="29">
@@ -4935,7 +5143,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4967,17 +5175,21 @@
       <c r="P59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
+      <c r="Q59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="29">
@@ -4999,7 +5211,7 @@
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5028,20 +5240,24 @@
       <c r="O60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="33"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
+      <c r="P60" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="29">
@@ -5063,7 +5279,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5080,13 +5296,13 @@
       <c r="K61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="34" t="s">
+      <c r="L61" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M61" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="34" t="s">
+      <c r="N61" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="27" t="s">
@@ -5095,17 +5311,21 @@
       <c r="P61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="33"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
+      <c r="Q61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="29">
@@ -5127,7 +5347,7 @@
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -5144,13 +5364,13 @@
       <c r="K62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="34" t="s">
+      <c r="L62" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M62" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="34" t="s">
+      <c r="N62" s="33" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="27" t="s">
@@ -5159,17 +5379,21 @@
       <c r="P62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="33"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
+      <c r="Q62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="29">
@@ -5191,7 +5415,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -5223,17 +5447,21 @@
       <c r="P63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
+      <c r="Q63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="29">
@@ -5255,7 +5483,7 @@
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5287,17 +5515,21 @@
       <c r="P64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
+      <c r="Q64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="29">
@@ -5319,7 +5551,7 @@
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5336,32 +5568,36 @@
       <c r="K65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="34" t="s">
+      <c r="L65" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="34" t="s">
+      <c r="N65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="33" t="s">
         <v>21</v>
       </c>
       <c r="P65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
+      <c r="Q65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="29">
@@ -5383,7 +5619,7 @@
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5412,20 +5648,24 @@
       <c r="O66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
+      <c r="P66" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="29">
@@ -5443,11 +5683,11 @@
       </c>
       <c r="E67" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -5473,23 +5713,27 @@
       <c r="N67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="O67" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
+      <c r="O67" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="29">
@@ -5511,7 +5755,7 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5543,17 +5787,21 @@
       <c r="P68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
+      <c r="Q68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="29">
@@ -5571,11 +5819,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5592,7 +5840,7 @@
       <c r="K69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="34" t="s">
+      <c r="L69" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M69" s="26" t="s">
@@ -5607,17 +5855,21 @@
       <c r="P69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
+      <c r="Q69" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="29">
@@ -5635,11 +5887,11 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5656,7 +5908,7 @@
       <c r="K70" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M70" s="26" t="s">
@@ -5671,17 +5923,21 @@
       <c r="P70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="33"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="33"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="33"/>
-      <c r="W70" s="33"/>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
+      <c r="Q70" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="29">
@@ -5703,7 +5959,7 @@
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5735,17 +5991,21 @@
       <c r="P71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
+      <c r="Q71" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="29">
@@ -5767,7 +6027,7 @@
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
@@ -5787,7 +6047,7 @@
       <c r="L72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M72" s="34" t="s">
+      <c r="M72" s="33" t="s">
         <v>21</v>
       </c>
       <c r="N72" s="26" t="s">
@@ -5796,20 +6056,24 @@
       <c r="O72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
+      <c r="P72" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="34"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="34"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="29">
@@ -5831,7 +6095,7 @@
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
@@ -5848,7 +6112,7 @@
       <c r="K73" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="34" t="s">
+      <c r="L73" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M73" s="26" t="s">
@@ -5860,20 +6124,24 @@
       <c r="O73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="33"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="33"/>
-      <c r="W73" s="33"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
+      <c r="P73" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="34"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="29">
@@ -5895,7 +6163,7 @@
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -5912,7 +6180,7 @@
       <c r="K74" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="34" t="s">
+      <c r="L74" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M74" s="26" t="s">
@@ -5924,20 +6192,24 @@
       <c r="O74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="33"/>
-      <c r="U74" s="33"/>
-      <c r="V74" s="33"/>
-      <c r="W74" s="33"/>
-      <c r="X74" s="33"/>
-      <c r="Y74" s="33"/>
-      <c r="Z74" s="33"/>
-      <c r="AA74" s="33"/>
+      <c r="P74" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="29">
@@ -5955,7 +6227,7 @@
       </c>
       <c r="E75" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
@@ -5991,17 +6263,21 @@
       <c r="P75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="33"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="33"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-      <c r="Z75" s="33"/>
-      <c r="AA75" s="33"/>
+      <c r="Q75" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="29">
@@ -6023,7 +6299,7 @@
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -6040,7 +6316,7 @@
       <c r="K76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="34" t="s">
+      <c r="L76" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M76" s="26" t="s">
@@ -6055,17 +6331,21 @@
       <c r="P76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="33"/>
-      <c r="T76" s="33"/>
-      <c r="U76" s="33"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="33"/>
-      <c r="Y76" s="33"/>
-      <c r="Z76" s="33"/>
-      <c r="AA76" s="33"/>
+      <c r="Q76" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="34"/>
+      <c r="W76" s="34"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="34"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="34"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="29">
@@ -6087,7 +6367,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -6104,7 +6384,7 @@
       <c r="K77" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L77" s="34" t="s">
+      <c r="L77" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M77" s="26" t="s">
@@ -6119,17 +6399,21 @@
       <c r="P77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="33"/>
-      <c r="Z77" s="33"/>
-      <c r="AA77" s="33"/>
+      <c r="Q77" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="34"/>
+      <c r="W77" s="34"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="34"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="34"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="29">
@@ -6151,7 +6435,7 @@
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -6168,7 +6452,7 @@
       <c r="K78" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L78" s="34" t="s">
+      <c r="L78" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M78" s="26" t="s">
@@ -6183,17 +6467,21 @@
       <c r="P78" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
-      <c r="Y78" s="33"/>
-      <c r="Z78" s="33"/>
-      <c r="AA78" s="33"/>
+      <c r="Q78" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="34"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="34"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="29" t="str">
@@ -6212,26 +6500,26 @@
         <v/>
       </c>
       <c r="G79" s="37"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="33"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="29" t="str">
@@ -6250,26 +6538,26 @@
         <v/>
       </c>
       <c r="G80" s="37"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="33"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="33"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="29" t="str">
@@ -6288,26 +6576,26 @@
         <v/>
       </c>
       <c r="G81" s="37"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="33"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="29" t="str">
@@ -6326,26 +6614,26 @@
         <v/>
       </c>
       <c r="G82" s="37"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="33"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="29" t="str">
@@ -6364,26 +6652,26 @@
         <v/>
       </c>
       <c r="G83" s="37"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+      <c r="AA83" s="34"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="29" t="str">
@@ -6402,26 +6690,26 @@
         <v/>
       </c>
       <c r="G84" s="37"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="34"/>
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="34"/>
+      <c r="AA84" s="34"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="29" t="str">
@@ -6440,26 +6728,26 @@
         <v/>
       </c>
       <c r="G85" s="37"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="29" t="str">
@@ -6478,26 +6766,26 @@
         <v/>
       </c>
       <c r="G86" s="37"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="34"/>
+      <c r="V86" s="34"/>
+      <c r="W86" s="34"/>
+      <c r="X86" s="34"/>
+      <c r="Y86" s="34"/>
+      <c r="Z86" s="34"/>
+      <c r="AA86" s="34"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="29" t="str">
@@ -6516,26 +6804,26 @@
         <v/>
       </c>
       <c r="G87" s="37"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="33"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="34"/>
+      <c r="X87" s="34"/>
+      <c r="Y87" s="34"/>
+      <c r="Z87" s="34"/>
+      <c r="AA87" s="34"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="29" t="str">
@@ -6554,26 +6842,26 @@
         <v/>
       </c>
       <c r="G88" s="37"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="33"/>
-      <c r="X88" s="33"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="29" t="str">
@@ -6592,26 +6880,26 @@
         <v/>
       </c>
       <c r="G89" s="37"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="34"/>
+      <c r="V89" s="34"/>
+      <c r="W89" s="34"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="29" t="str">
@@ -6630,26 +6918,26 @@
         <v/>
       </c>
       <c r="G90" s="37"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="33"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="33"/>
-      <c r="V90" s="33"/>
-      <c r="W90" s="33"/>
-      <c r="X90" s="33"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="34"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="34"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="29" t="str">
@@ -6668,26 +6956,26 @@
         <v/>
       </c>
       <c r="G91" s="37"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="34"/>
+      <c r="U91" s="34"/>
+      <c r="V91" s="34"/>
+      <c r="W91" s="34"/>
+      <c r="X91" s="34"/>
+      <c r="Y91" s="34"/>
+      <c r="Z91" s="34"/>
+      <c r="AA91" s="34"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="29" t="str">
@@ -6706,26 +6994,26 @@
         <v/>
       </c>
       <c r="G92" s="37"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
-      <c r="R92" s="33"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="33"/>
-      <c r="U92" s="33"/>
-      <c r="V92" s="33"/>
-      <c r="W92" s="33"/>
-      <c r="X92" s="33"/>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="29" t="str">
@@ -6744,26 +7032,26 @@
         <v/>
       </c>
       <c r="G93" s="37"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="33"/>
-      <c r="R93" s="33"/>
-      <c r="S93" s="33"/>
-      <c r="T93" s="33"/>
-      <c r="U93" s="33"/>
-      <c r="V93" s="33"/>
-      <c r="W93" s="33"/>
-      <c r="X93" s="33"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
+      <c r="U93" s="34"/>
+      <c r="V93" s="34"/>
+      <c r="W93" s="34"/>
+      <c r="X93" s="34"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="34"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="29" t="str">
@@ -6782,26 +7070,26 @@
         <v/>
       </c>
       <c r="G94" s="37"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="33"/>
-      <c r="R94" s="33"/>
-      <c r="S94" s="33"/>
-      <c r="T94" s="33"/>
-      <c r="U94" s="33"/>
-      <c r="V94" s="33"/>
-      <c r="W94" s="33"/>
-      <c r="X94" s="33"/>
-      <c r="Y94" s="33"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="34"/>
+      <c r="V94" s="34"/>
+      <c r="W94" s="34"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="29" t="str">
@@ -6820,26 +7108,26 @@
         <v/>
       </c>
       <c r="G95" s="37"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="33"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="33"/>
-      <c r="R95" s="33"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="33"/>
-      <c r="V95" s="33"/>
-      <c r="W95" s="33"/>
-      <c r="X95" s="33"/>
-      <c r="Y95" s="33"/>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="33"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="34"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="34"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>

--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1603,11 +1603,11 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1645,9 +1645,15 @@
       <c r="R7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="S7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V7" s="28"/>
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1713,9 +1719,15 @@
       <c r="R8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -1739,11 +1751,11 @@
       </c>
       <c r="E9" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1781,9 +1793,15 @@
       <c r="R9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
+      <c r="S9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
@@ -1811,7 +1829,7 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1849,9 +1867,15 @@
       <c r="R10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
+      <c r="S10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
@@ -1875,11 +1899,11 @@
       </c>
       <c r="E11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1917,9 +1941,15 @@
       <c r="R11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
+      <c r="S11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
@@ -1947,7 +1977,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -1985,9 +2015,15 @@
       <c r="R12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
+      <c r="S12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
@@ -2011,11 +2047,11 @@
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -2053,9 +2089,15 @@
       <c r="R13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
+      <c r="S13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
@@ -2079,11 +2121,11 @@
       </c>
       <c r="E14" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2121,9 +2163,15 @@
       <c r="R14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
+      <c r="S14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -2147,11 +2195,11 @@
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2189,9 +2237,15 @@
       <c r="R15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
+      <c r="S15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
@@ -2219,7 +2273,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2257,9 +2311,15 @@
       <c r="R16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
+      <c r="S16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
@@ -2283,11 +2343,11 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2325,9 +2385,15 @@
       <c r="R17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
+      <c r="S17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
@@ -2351,11 +2417,11 @@
       </c>
       <c r="E18" s="24">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2393,9 +2459,15 @@
       <c r="R18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
+      <c r="S18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
@@ -2423,7 +2495,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2461,9 +2533,15 @@
       <c r="R19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
+      <c r="S19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
@@ -2491,7 +2569,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2529,9 +2607,15 @@
       <c r="R20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+      <c r="S20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
@@ -2559,7 +2643,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2597,9 +2681,15 @@
       <c r="R21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
+      <c r="S21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
@@ -2627,7 +2717,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2665,9 +2755,15 @@
       <c r="R22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+      <c r="S22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V22" s="34"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
@@ -2695,7 +2791,7 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2733,9 +2829,15 @@
       <c r="R23" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
+      <c r="S23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V23" s="34"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
@@ -2763,7 +2865,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2801,9 +2903,15 @@
       <c r="R24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
+      <c r="S24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V24" s="34"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
@@ -2831,7 +2939,7 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2869,9 +2977,15 @@
       <c r="R25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
+      <c r="S25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
       <c r="X25" s="34"/>
@@ -2895,11 +3009,11 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -2937,9 +3051,15 @@
       <c r="R26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="S26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
@@ -2963,11 +3083,11 @@
       </c>
       <c r="E27" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -3005,9 +3125,15 @@
       <c r="R27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
+      <c r="S27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
@@ -3035,7 +3161,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3073,9 +3199,15 @@
       <c r="R28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="S28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
@@ -3103,7 +3235,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3141,9 +3273,15 @@
       <c r="R29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
+      <c r="S29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="34"/>
@@ -3167,11 +3305,11 @@
       </c>
       <c r="E30" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3209,9 +3347,15 @@
       <c r="R30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
+      <c r="S30" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
       <c r="X30" s="34"/>
@@ -3239,7 +3383,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3277,9 +3421,15 @@
       <c r="R31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
+      <c r="S31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
       <c r="X31" s="34"/>
@@ -3307,7 +3457,7 @@
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3345,9 +3495,15 @@
       <c r="R32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
+      <c r="S32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
       <c r="X32" s="34"/>
@@ -3371,11 +3527,11 @@
       </c>
       <c r="E33" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3413,9 +3569,15 @@
       <c r="R33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
+      <c r="S33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
       <c r="X33" s="34"/>
@@ -3439,11 +3601,11 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3481,9 +3643,15 @@
       <c r="R34" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
+      <c r="S34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
       <c r="X34" s="34"/>
@@ -3511,7 +3679,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3549,9 +3717,15 @@
       <c r="R35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
+      <c r="S35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V35" s="34"/>
       <c r="W35" s="34"/>
       <c r="X35" s="34"/>
@@ -3579,7 +3753,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3617,9 +3791,15 @@
       <c r="R36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
+      <c r="S36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V36" s="34"/>
       <c r="W36" s="34"/>
       <c r="X36" s="34"/>
@@ -3643,11 +3823,11 @@
       </c>
       <c r="E37" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3685,9 +3865,15 @@
       <c r="R37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
+      <c r="S37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V37" s="34"/>
       <c r="W37" s="34"/>
       <c r="X37" s="34"/>
@@ -3711,11 +3897,11 @@
       </c>
       <c r="E38" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3753,9 +3939,15 @@
       <c r="R38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
+      <c r="S38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V38" s="34"/>
       <c r="W38" s="34"/>
       <c r="X38" s="34"/>
@@ -3783,7 +3975,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -3821,9 +4013,15 @@
       <c r="R39" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
+      <c r="S39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V39" s="34"/>
       <c r="W39" s="34"/>
       <c r="X39" s="34"/>
@@ -3851,7 +4049,7 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>21</v>
@@ -3889,9 +4087,15 @@
       <c r="R40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
+      <c r="S40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V40" s="34"/>
       <c r="W40" s="34"/>
       <c r="X40" s="34"/>
@@ -3919,7 +4123,7 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -3957,9 +4161,15 @@
       <c r="R41" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
+      <c r="S41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V41" s="34"/>
       <c r="W41" s="34"/>
       <c r="X41" s="34"/>
@@ -3983,11 +4193,11 @@
       </c>
       <c r="E42" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4025,9 +4235,15 @@
       <c r="R42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
+      <c r="S42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V42" s="34"/>
       <c r="W42" s="34"/>
       <c r="X42" s="34"/>
@@ -4051,11 +4267,11 @@
       </c>
       <c r="E43" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4093,9 +4309,15 @@
       <c r="R43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
+      <c r="S43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V43" s="34"/>
       <c r="W43" s="34"/>
       <c r="X43" s="34"/>
@@ -4123,7 +4345,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4161,9 +4383,15 @@
       <c r="R44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
+      <c r="S44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V44" s="34"/>
       <c r="W44" s="34"/>
       <c r="X44" s="34"/>
@@ -4187,11 +4415,11 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4229,9 +4457,15 @@
       <c r="R45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
+      <c r="S45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V45" s="34"/>
       <c r="W45" s="34"/>
       <c r="X45" s="34"/>
@@ -4259,7 +4493,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4297,9 +4531,15 @@
       <c r="R46" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
+      <c r="S46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V46" s="34"/>
       <c r="W46" s="34"/>
       <c r="X46" s="34"/>
@@ -4327,7 +4567,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4365,9 +4605,15 @@
       <c r="R47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
+      <c r="S47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V47" s="34"/>
       <c r="W47" s="34"/>
       <c r="X47" s="34"/>
@@ -4391,11 +4637,11 @@
       </c>
       <c r="E48" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4433,9 +4679,15 @@
       <c r="R48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
+      <c r="S48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V48" s="34"/>
       <c r="W48" s="34"/>
       <c r="X48" s="34"/>
@@ -4463,7 +4715,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4501,9 +4753,15 @@
       <c r="R49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
+      <c r="S49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V49" s="34"/>
       <c r="W49" s="34"/>
       <c r="X49" s="34"/>
@@ -4531,7 +4789,7 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4569,9 +4827,15 @@
       <c r="R50" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
+      <c r="S50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V50" s="34"/>
       <c r="W50" s="34"/>
       <c r="X50" s="34"/>
@@ -4599,7 +4863,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4637,9 +4901,15 @@
       <c r="R51" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
+      <c r="S51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V51" s="34"/>
       <c r="W51" s="34"/>
       <c r="X51" s="34"/>
@@ -4663,11 +4933,11 @@
       </c>
       <c r="E52" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4705,9 +4975,15 @@
       <c r="R52" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
+      <c r="S52" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V52" s="34"/>
       <c r="W52" s="34"/>
       <c r="X52" s="34"/>
@@ -4731,11 +5007,11 @@
       </c>
       <c r="E53" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -4773,9 +5049,15 @@
       <c r="R53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
+      <c r="S53" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V53" s="34"/>
       <c r="W53" s="34"/>
       <c r="X53" s="34"/>
@@ -4799,11 +5081,11 @@
       </c>
       <c r="E54" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -4841,9 +5123,15 @@
       <c r="R54" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
+      <c r="S54" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V54" s="34"/>
       <c r="W54" s="34"/>
       <c r="X54" s="34"/>
@@ -4867,11 +5155,11 @@
       </c>
       <c r="E55" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -4909,9 +5197,15 @@
       <c r="R55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
+      <c r="S55" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V55" s="34"/>
       <c r="W55" s="34"/>
       <c r="X55" s="34"/>
@@ -4935,11 +5229,11 @@
       </c>
       <c r="E56" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>21</v>
@@ -4977,9 +5271,15 @@
       <c r="R56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
+      <c r="S56" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V56" s="34"/>
       <c r="W56" s="34"/>
       <c r="X56" s="34"/>
@@ -5003,11 +5303,11 @@
       </c>
       <c r="E57" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5045,9 +5345,15 @@
       <c r="R57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
+      <c r="S57" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V57" s="34"/>
       <c r="W57" s="34"/>
       <c r="X57" s="34"/>
@@ -5075,7 +5381,7 @@
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>20</v>
@@ -5113,9 +5419,15 @@
       <c r="R58" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
+      <c r="S58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V58" s="34"/>
       <c r="W58" s="34"/>
       <c r="X58" s="34"/>
@@ -5143,7 +5455,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5181,9 +5493,15 @@
       <c r="R59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
+      <c r="S59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V59" s="34"/>
       <c r="W59" s="34"/>
       <c r="X59" s="34"/>
@@ -5207,11 +5525,11 @@
       </c>
       <c r="E60" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5249,9 +5567,15 @@
       <c r="R60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
+      <c r="S60" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V60" s="34"/>
       <c r="W60" s="34"/>
       <c r="X60" s="34"/>
@@ -5279,7 +5603,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5317,9 +5641,15 @@
       <c r="R61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
+      <c r="S61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V61" s="34"/>
       <c r="W61" s="34"/>
       <c r="X61" s="34"/>
@@ -5347,7 +5677,7 @@
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -5385,9 +5715,15 @@
       <c r="R62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
+      <c r="S62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V62" s="34"/>
       <c r="W62" s="34"/>
       <c r="X62" s="34"/>
@@ -5415,7 +5751,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -5453,9 +5789,15 @@
       <c r="R63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
+      <c r="S63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V63" s="34"/>
       <c r="W63" s="34"/>
       <c r="X63" s="34"/>
@@ -5479,11 +5821,11 @@
       </c>
       <c r="E64" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5521,9 +5863,15 @@
       <c r="R64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
+      <c r="S64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="V64" s="34"/>
       <c r="W64" s="34"/>
       <c r="X64" s="34"/>
@@ -5551,7 +5899,7 @@
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5589,9 +5937,15 @@
       <c r="R65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
+      <c r="S65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V65" s="34"/>
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
@@ -5619,7 +5973,7 @@
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -5657,9 +6011,15 @@
       <c r="R66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
+      <c r="S66" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V66" s="34"/>
       <c r="W66" s="34"/>
       <c r="X66" s="34"/>
@@ -5687,7 +6047,7 @@
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -5725,9 +6085,15 @@
       <c r="R67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
+      <c r="S67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V67" s="34"/>
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
@@ -5751,11 +6117,11 @@
       </c>
       <c r="E68" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -5793,9 +6159,15 @@
       <c r="R68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
+      <c r="S68" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V68" s="34"/>
       <c r="W68" s="34"/>
       <c r="X68" s="34"/>
@@ -5819,11 +6191,11 @@
       </c>
       <c r="E69" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -5861,9 +6233,15 @@
       <c r="R69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
+      <c r="S69" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V69" s="34"/>
       <c r="W69" s="34"/>
       <c r="X69" s="34"/>
@@ -5891,7 +6269,7 @@
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -5929,9 +6307,15 @@
       <c r="R70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
+      <c r="S70" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V70" s="34"/>
       <c r="W70" s="34"/>
       <c r="X70" s="34"/>
@@ -5955,11 +6339,11 @@
       </c>
       <c r="E71" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -5997,9 +6381,15 @@
       <c r="R71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
+      <c r="S71" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V71" s="34"/>
       <c r="W71" s="34"/>
       <c r="X71" s="34"/>
@@ -6027,7 +6417,7 @@
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
@@ -6065,9 +6455,15 @@
       <c r="R72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
+      <c r="S72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V72" s="34"/>
       <c r="W72" s="34"/>
       <c r="X72" s="34"/>
@@ -6091,11 +6487,11 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
@@ -6133,9 +6529,15 @@
       <c r="R73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
+      <c r="S73" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V73" s="34"/>
       <c r="W73" s="34"/>
       <c r="X73" s="34"/>
@@ -6163,7 +6565,7 @@
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -6201,9 +6603,15 @@
       <c r="R74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
+      <c r="S74" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V74" s="34"/>
       <c r="W74" s="34"/>
       <c r="X74" s="34"/>
@@ -6231,7 +6639,7 @@
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -6269,9 +6677,15 @@
       <c r="R75" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
+      <c r="S75" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U75" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V75" s="34"/>
       <c r="W75" s="34"/>
       <c r="X75" s="34"/>
@@ -6299,7 +6713,7 @@
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -6337,9 +6751,15 @@
       <c r="R76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
+      <c r="S76" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V76" s="34"/>
       <c r="W76" s="34"/>
       <c r="X76" s="34"/>
@@ -6367,7 +6787,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -6405,9 +6825,15 @@
       <c r="R77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
+      <c r="S77" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V77" s="34"/>
       <c r="W77" s="34"/>
       <c r="X77" s="34"/>
@@ -6435,7 +6861,7 @@
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -6473,9 +6899,15 @@
       <c r="R78" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
+      <c r="S78" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="U78" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="V78" s="34"/>
       <c r="W78" s="34"/>
       <c r="X78" s="34"/>

--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1603,11 +1603,11 @@
       </c>
       <c r="E7" s="24">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1654,8 +1654,12 @@
       <c r="U7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="V7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -1681,7 +1685,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1728,8 +1732,12 @@
       <c r="U8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="V8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X8" s="34"/>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
@@ -1755,7 +1763,7 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1802,8 +1810,12 @@
       <c r="U9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
+      <c r="V9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="34"/>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
@@ -1829,7 +1841,7 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1876,8 +1888,12 @@
       <c r="U10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
+      <c r="V10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
@@ -1903,7 +1919,7 @@
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>20</v>
@@ -1950,8 +1966,12 @@
       <c r="U11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
+      <c r="V11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
@@ -1977,7 +1997,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -2024,8 +2044,12 @@
       <c r="U12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
+      <c r="V12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
@@ -2047,11 +2071,11 @@
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>20</v>
@@ -2098,8 +2122,12 @@
       <c r="U13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="V13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
@@ -2125,7 +2153,7 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2172,8 +2200,12 @@
       <c r="U14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
+      <c r="V14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
@@ -2195,11 +2227,11 @@
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>20</v>
@@ -2246,8 +2278,12 @@
       <c r="U15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
+      <c r="V15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
@@ -2273,7 +2309,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2320,8 +2356,12 @@
       <c r="U16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
+      <c r="V16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
@@ -2347,7 +2387,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2394,8 +2434,12 @@
       <c r="U17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
+      <c r="V17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
@@ -2421,7 +2465,7 @@
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2468,8 +2512,12 @@
       <c r="U18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
+      <c r="V18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
@@ -2495,7 +2543,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>20</v>
@@ -2542,8 +2590,12 @@
       <c r="U19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
+      <c r="V19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
@@ -2569,7 +2621,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>20</v>
@@ -2616,8 +2668,12 @@
       <c r="U20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
+      <c r="V20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
@@ -2643,7 +2699,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2690,8 +2746,12 @@
       <c r="U21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
+      <c r="V21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
@@ -2717,7 +2777,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2764,8 +2824,12 @@
       <c r="U22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
+      <c r="V22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
@@ -2787,11 +2851,11 @@
       </c>
       <c r="E23" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2838,8 +2902,12 @@
       <c r="U23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
+      <c r="V23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
@@ -2865,7 +2933,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -2912,8 +2980,12 @@
       <c r="U24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
+      <c r="V24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X24" s="34"/>
       <c r="Y24" s="34"/>
       <c r="Z24" s="34"/>
@@ -2939,7 +3011,7 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -2986,8 +3058,12 @@
       <c r="U25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
+      <c r="V25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X25" s="34"/>
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
@@ -3013,7 +3089,7 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>20</v>
@@ -3060,8 +3136,12 @@
       <c r="U26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
+      <c r="V26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X26" s="34"/>
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
@@ -3087,7 +3167,7 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -3134,8 +3214,12 @@
       <c r="U27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
+      <c r="V27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X27" s="34"/>
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
@@ -3161,7 +3245,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3208,8 +3292,12 @@
       <c r="U28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
+      <c r="V28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X28" s="34"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
@@ -3235,7 +3323,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3282,8 +3370,12 @@
       <c r="U29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="V29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="34"/>
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
@@ -3309,7 +3401,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3356,8 +3448,12 @@
       <c r="U30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
+      <c r="V30" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X30" s="34"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
@@ -3383,7 +3479,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>20</v>
@@ -3430,8 +3526,12 @@
       <c r="U31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
+      <c r="V31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X31" s="34"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
@@ -3457,7 +3557,7 @@
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3504,8 +3604,12 @@
       <c r="U32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
+      <c r="V32" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X32" s="34"/>
       <c r="Y32" s="34"/>
       <c r="Z32" s="34"/>
@@ -3531,7 +3635,7 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3578,8 +3682,12 @@
       <c r="U33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
+      <c r="V33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X33" s="34"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
@@ -3605,7 +3713,7 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3652,8 +3760,12 @@
       <c r="U34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
+      <c r="V34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X34" s="34"/>
       <c r="Y34" s="34"/>
       <c r="Z34" s="34"/>
@@ -3675,11 +3787,11 @@
       </c>
       <c r="E35" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3726,8 +3838,12 @@
       <c r="U35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
+      <c r="V35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X35" s="34"/>
       <c r="Y35" s="34"/>
       <c r="Z35" s="34"/>
@@ -3753,7 +3869,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3800,8 +3916,12 @@
       <c r="U36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
+      <c r="V36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
@@ -3827,7 +3947,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -3874,8 +3994,12 @@
       <c r="U37" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
+      <c r="V37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X37" s="34"/>
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
@@ -3901,7 +4025,7 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -3948,8 +4072,12 @@
       <c r="U38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
+      <c r="V38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X38" s="34"/>
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
@@ -3971,11 +4099,11 @@
       </c>
       <c r="E39" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -4022,8 +4150,12 @@
       <c r="U39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
+      <c r="V39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="X39" s="34"/>
       <c r="Y39" s="34"/>
       <c r="Z39" s="34"/>
@@ -4049,7 +4181,7 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>21</v>
@@ -4096,8 +4228,12 @@
       <c r="U40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
+      <c r="V40" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X40" s="34"/>
       <c r="Y40" s="34"/>
       <c r="Z40" s="34"/>
@@ -4119,11 +4255,11 @@
       </c>
       <c r="E41" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -4170,8 +4306,12 @@
       <c r="U41" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
+      <c r="V41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X41" s="34"/>
       <c r="Y41" s="34"/>
       <c r="Z41" s="34"/>
@@ -4197,7 +4337,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4244,8 +4384,12 @@
       <c r="U42" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
+      <c r="V42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X42" s="34"/>
       <c r="Y42" s="34"/>
       <c r="Z42" s="34"/>
@@ -4271,7 +4415,7 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4318,8 +4462,12 @@
       <c r="U43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="V43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="34"/>
       <c r="Y43" s="34"/>
       <c r="Z43" s="34"/>
@@ -4345,7 +4493,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4392,8 +4540,12 @@
       <c r="U44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
+      <c r="V44" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="34"/>
       <c r="Y44" s="34"/>
       <c r="Z44" s="34"/>
@@ -4419,7 +4571,7 @@
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4466,8 +4618,12 @@
       <c r="U45" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
+      <c r="V45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X45" s="34"/>
       <c r="Y45" s="34"/>
       <c r="Z45" s="34"/>
@@ -4493,7 +4649,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4540,8 +4696,12 @@
       <c r="U46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
+      <c r="V46" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X46" s="34"/>
       <c r="Y46" s="34"/>
       <c r="Z46" s="34"/>
@@ -4567,7 +4727,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4614,8 +4774,12 @@
       <c r="U47" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
+      <c r="V47" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X47" s="34"/>
       <c r="Y47" s="34"/>
       <c r="Z47" s="34"/>
@@ -4641,7 +4805,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4688,8 +4852,12 @@
       <c r="U48" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
+      <c r="V48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X48" s="34"/>
       <c r="Y48" s="34"/>
       <c r="Z48" s="34"/>
@@ -4715,7 +4883,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -4762,8 +4930,12 @@
       <c r="U49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
+      <c r="V49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X49" s="34"/>
       <c r="Y49" s="34"/>
       <c r="Z49" s="34"/>
@@ -4785,11 +4957,11 @@
       </c>
       <c r="E50" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -4836,8 +5008,12 @@
       <c r="U50" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
+      <c r="V50" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X50" s="34"/>
       <c r="Y50" s="34"/>
       <c r="Z50" s="34"/>
@@ -4859,11 +5035,11 @@
       </c>
       <c r="E51" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -4910,8 +5086,12 @@
       <c r="U51" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
+      <c r="V51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X51" s="34"/>
       <c r="Y51" s="34"/>
       <c r="Z51" s="34"/>
@@ -4937,7 +5117,7 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -4984,8 +5164,12 @@
       <c r="U52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
+      <c r="V52" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="34"/>
       <c r="Y52" s="34"/>
       <c r="Z52" s="34"/>
@@ -5011,7 +5195,7 @@
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -5058,8 +5242,12 @@
       <c r="U53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
+      <c r="V53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X53" s="34"/>
       <c r="Y53" s="34"/>
       <c r="Z53" s="34"/>
@@ -5085,7 +5273,7 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -5132,8 +5320,12 @@
       <c r="U54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
+      <c r="V54" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X54" s="34"/>
       <c r="Y54" s="34"/>
       <c r="Z54" s="34"/>
@@ -5159,7 +5351,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -5206,8 +5398,12 @@
       <c r="U55" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
+      <c r="V55" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X55" s="34"/>
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
@@ -5233,7 +5429,7 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>21</v>
@@ -5280,8 +5476,12 @@
       <c r="U56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
+      <c r="V56" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X56" s="34"/>
       <c r="Y56" s="34"/>
       <c r="Z56" s="34"/>
@@ -5307,7 +5507,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>20</v>
@@ -5354,8 +5554,12 @@
       <c r="U57" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
+      <c r="V57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W57" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X57" s="34"/>
       <c r="Y57" s="34"/>
       <c r="Z57" s="34"/>
@@ -5377,11 +5581,11 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>20</v>
@@ -5428,8 +5632,12 @@
       <c r="U58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
+      <c r="V58" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X58" s="34"/>
       <c r="Y58" s="34"/>
       <c r="Z58" s="34"/>
@@ -5455,7 +5663,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5502,8 +5710,12 @@
       <c r="U59" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
+      <c r="V59" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W59" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="34"/>
       <c r="Y59" s="34"/>
       <c r="Z59" s="34"/>
@@ -5529,7 +5741,7 @@
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5576,8 +5788,12 @@
       <c r="U60" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
+      <c r="V60" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X60" s="34"/>
       <c r="Y60" s="34"/>
       <c r="Z60" s="34"/>
@@ -5603,7 +5819,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>21</v>
@@ -5650,8 +5866,12 @@
       <c r="U61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
+      <c r="V61" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X61" s="34"/>
       <c r="Y61" s="34"/>
       <c r="Z61" s="34"/>
@@ -5673,11 +5893,11 @@
       </c>
       <c r="E62" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -5724,8 +5944,12 @@
       <c r="U62" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
+      <c r="V62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X62" s="34"/>
       <c r="Y62" s="34"/>
       <c r="Z62" s="34"/>
@@ -5751,7 +5975,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -5798,8 +6022,12 @@
       <c r="U63" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
+      <c r="V63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X63" s="34"/>
       <c r="Y63" s="34"/>
       <c r="Z63" s="34"/>
@@ -5825,7 +6053,7 @@
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5872,8 +6100,12 @@
       <c r="U64" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
+      <c r="V64" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X64" s="34"/>
       <c r="Y64" s="34"/>
       <c r="Z64" s="34"/>
@@ -5899,7 +6131,7 @@
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -5946,8 +6178,12 @@
       <c r="U65" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
+      <c r="V65" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W65" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X65" s="34"/>
       <c r="Y65" s="34"/>
       <c r="Z65" s="34"/>
@@ -5969,11 +6205,11 @@
       </c>
       <c r="E66" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -6020,8 +6256,12 @@
       <c r="U66" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
+      <c r="V66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W66" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X66" s="34"/>
       <c r="Y66" s="34"/>
       <c r="Z66" s="34"/>
@@ -6047,7 +6287,7 @@
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -6094,8 +6334,12 @@
       <c r="U67" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="34"/>
-      <c r="W67" s="34"/>
+      <c r="V67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X67" s="34"/>
       <c r="Y67" s="34"/>
       <c r="Z67" s="34"/>
@@ -6121,7 +6365,7 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -6168,8 +6412,12 @@
       <c r="U68" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="34"/>
-      <c r="W68" s="34"/>
+      <c r="V68" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X68" s="34"/>
       <c r="Y68" s="34"/>
       <c r="Z68" s="34"/>
@@ -6195,7 +6443,7 @@
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -6242,8 +6490,12 @@
       <c r="U69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
+      <c r="V69" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X69" s="34"/>
       <c r="Y69" s="34"/>
       <c r="Z69" s="34"/>
@@ -6269,7 +6521,7 @@
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>20</v>
@@ -6316,8 +6568,12 @@
       <c r="U70" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
+      <c r="V70" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X70" s="34"/>
       <c r="Y70" s="34"/>
       <c r="Z70" s="34"/>
@@ -6343,7 +6599,7 @@
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>20</v>
@@ -6390,8 +6646,12 @@
       <c r="U71" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
+      <c r="V71" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W71" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X71" s="34"/>
       <c r="Y71" s="34"/>
       <c r="Z71" s="34"/>
@@ -6413,11 +6673,11 @@
       </c>
       <c r="E72" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
@@ -6464,8 +6724,12 @@
       <c r="U72" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
+      <c r="V72" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X72" s="34"/>
       <c r="Y72" s="34"/>
       <c r="Z72" s="34"/>
@@ -6487,11 +6751,11 @@
       </c>
       <c r="E73" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
@@ -6538,8 +6802,12 @@
       <c r="U73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
+      <c r="V73" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X73" s="34"/>
       <c r="Y73" s="34"/>
       <c r="Z73" s="34"/>
@@ -6561,11 +6829,11 @@
       </c>
       <c r="E74" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -6612,8 +6880,12 @@
       <c r="U74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V74" s="34"/>
-      <c r="W74" s="34"/>
+      <c r="V74" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X74" s="34"/>
       <c r="Y74" s="34"/>
       <c r="Z74" s="34"/>
@@ -6639,7 +6911,7 @@
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -6686,8 +6958,12 @@
       <c r="U75" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
+      <c r="V75" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X75" s="34"/>
       <c r="Y75" s="34"/>
       <c r="Z75" s="34"/>
@@ -6709,11 +6985,11 @@
       </c>
       <c r="E76" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -6760,8 +7036,12 @@
       <c r="U76" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V76" s="34"/>
-      <c r="W76" s="34"/>
+      <c r="V76" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W76" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X76" s="34"/>
       <c r="Y76" s="34"/>
       <c r="Z76" s="34"/>
@@ -6787,7 +7067,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -6834,8 +7114,12 @@
       <c r="U77" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V77" s="34"/>
-      <c r="W77" s="34"/>
+      <c r="V77" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W77" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="X77" s="34"/>
       <c r="Y77" s="34"/>
       <c r="Z77" s="34"/>
@@ -6857,11 +7141,11 @@
       </c>
       <c r="E78" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -6908,8 +7192,12 @@
       <c r="U78" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V78" s="34"/>
-      <c r="W78" s="34"/>
+      <c r="V78" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="W78" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="X78" s="34"/>
       <c r="Y78" s="34"/>
       <c r="Z78" s="34"/>

--- a/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/FIM/FIM-U (EFGH) Attendance Sheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1660,9 +1660,7 @@
       <c r="W7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
@@ -1687,7 +1685,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>20</v>
@@ -1740,9 +1738,7 @@
       <c r="W8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X8" s="34"/>
       <c r="Y8" s="34"/>
       <c r="Z8" s="34"/>
       <c r="AA8" s="34"/>
@@ -1767,7 +1763,7 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>20</v>
@@ -1820,9 +1816,7 @@
       <c r="W9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X9" s="34"/>
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
       <c r="AA9" s="34"/>
@@ -1847,7 +1841,7 @@
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>20</v>
@@ -1900,9 +1894,7 @@
       <c r="W10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
       <c r="AA10" s="34"/>
@@ -1923,7 +1915,7 @@
       </c>
       <c r="E11" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
@@ -1980,9 +1972,7 @@
       <c r="W11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
       <c r="Z11" s="34"/>
       <c r="AA11" s="34"/>
@@ -2007,7 +1997,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>20</v>
@@ -2060,9 +2050,7 @@
       <c r="W12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
       <c r="AA12" s="34"/>
@@ -2083,7 +2071,7 @@
       </c>
       <c r="E13" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
@@ -2140,9 +2128,7 @@
       <c r="W13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
       <c r="AA13" s="34"/>
@@ -2167,7 +2153,7 @@
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2220,9 +2206,7 @@
       <c r="W14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
@@ -2243,7 +2227,7 @@
       </c>
       <c r="E15" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
@@ -2300,9 +2284,7 @@
       <c r="W15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X15" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
@@ -2327,7 +2309,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>21</v>
@@ -2380,9 +2362,7 @@
       <c r="W16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
@@ -2407,7 +2387,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>21</v>
@@ -2460,9 +2440,7 @@
       <c r="W17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
@@ -2487,7 +2465,7 @@
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>20</v>
@@ -2540,9 +2518,7 @@
       <c r="W18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
@@ -2563,7 +2539,7 @@
       </c>
       <c r="E19" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
@@ -2620,9 +2596,7 @@
       <c r="W19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X19" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
@@ -2643,7 +2617,7 @@
       </c>
       <c r="E20" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
@@ -2700,9 +2674,7 @@
       <c r="W20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X20" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X20" s="34"/>
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
@@ -2727,7 +2699,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>20</v>
@@ -2780,9 +2752,7 @@
       <c r="W21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X21" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
@@ -2807,7 +2777,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>20</v>
@@ -2860,9 +2830,7 @@
       <c r="W22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
@@ -2887,7 +2855,7 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>20</v>
@@ -2940,9 +2908,7 @@
       <c r="W23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
@@ -2967,7 +2933,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>20</v>
@@ -3020,9 +2986,7 @@
       <c r="W24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X24" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X24" s="34"/>
       <c r="Y24" s="34"/>
       <c r="Z24" s="34"/>
       <c r="AA24" s="34"/>
@@ -3047,7 +3011,7 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>20</v>
@@ -3100,9 +3064,7 @@
       <c r="W25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X25" s="34"/>
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
@@ -3123,7 +3085,7 @@
       </c>
       <c r="E26" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
@@ -3180,9 +3142,7 @@
       <c r="W26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X26" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X26" s="34"/>
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
       <c r="AA26" s="34"/>
@@ -3207,7 +3167,7 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>20</v>
@@ -3260,9 +3220,7 @@
       <c r="W27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X27" s="34"/>
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
@@ -3287,7 +3245,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>20</v>
@@ -3340,9 +3298,7 @@
       <c r="W28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X28" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X28" s="34"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
@@ -3367,7 +3323,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>20</v>
@@ -3420,9 +3376,7 @@
       <c r="W29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X29" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X29" s="34"/>
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
@@ -3447,7 +3401,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>20</v>
@@ -3500,9 +3454,7 @@
       <c r="W30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X30" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X30" s="34"/>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
       <c r="AA30" s="34"/>
@@ -3523,7 +3475,7 @@
       </c>
       <c r="E31" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
@@ -3580,9 +3532,7 @@
       <c r="W31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X31" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X31" s="34"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
       <c r="AA31" s="34"/>
@@ -3607,7 +3557,7 @@
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3660,9 +3610,7 @@
       <c r="W32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X32" s="34"/>
       <c r="Y32" s="34"/>
       <c r="Z32" s="34"/>
       <c r="AA32" s="34"/>
@@ -3687,7 +3635,7 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>20</v>
@@ -3740,9 +3688,7 @@
       <c r="W33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X33" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X33" s="34"/>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
       <c r="AA33" s="34"/>
@@ -3767,7 +3713,7 @@
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>21</v>
@@ -3820,9 +3766,7 @@
       <c r="W34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X34" s="34"/>
       <c r="Y34" s="34"/>
       <c r="Z34" s="34"/>
       <c r="AA34" s="34"/>
@@ -3847,7 +3791,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>20</v>
@@ -3900,9 +3844,7 @@
       <c r="W35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X35" s="34"/>
       <c r="Y35" s="34"/>
       <c r="Z35" s="34"/>
       <c r="AA35" s="34"/>
@@ -3927,7 +3869,7 @@
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>20</v>
@@ -3980,9 +3922,7 @@
       <c r="W36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X36" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
       <c r="Z36" s="34"/>
       <c r="AA36" s="34"/>
@@ -4007,7 +3947,7 @@
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>20</v>
@@ -4060,9 +4000,7 @@
       <c r="W37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X37" s="34"/>
       <c r="Y37" s="34"/>
       <c r="Z37" s="34"/>
       <c r="AA37" s="34"/>
@@ -4087,7 +4025,7 @@
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>20</v>
@@ -4140,9 +4078,7 @@
       <c r="W38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X38" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X38" s="34"/>
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
       <c r="AA38" s="34"/>
@@ -4167,7 +4103,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>20</v>
@@ -4220,9 +4156,7 @@
       <c r="W39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="X39" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X39" s="34"/>
       <c r="Y39" s="34"/>
       <c r="Z39" s="34"/>
       <c r="AA39" s="34"/>
@@ -4247,7 +4181,7 @@
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>21</v>
@@ -4300,9 +4234,7 @@
       <c r="W40" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X40" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X40" s="34"/>
       <c r="Y40" s="34"/>
       <c r="Z40" s="34"/>
       <c r="AA40" s="34"/>
@@ -4327,7 +4259,7 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>20</v>
@@ -4380,9 +4312,7 @@
       <c r="W41" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X41" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X41" s="34"/>
       <c r="Y41" s="34"/>
       <c r="Z41" s="34"/>
       <c r="AA41" s="34"/>
@@ -4407,7 +4337,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>21</v>
@@ -4460,9 +4390,7 @@
       <c r="W42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X42" s="34"/>
       <c r="Y42" s="34"/>
       <c r="Z42" s="34"/>
       <c r="AA42" s="34"/>
@@ -4487,7 +4415,7 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>20</v>
@@ -4540,9 +4468,7 @@
       <c r="W43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X43" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X43" s="34"/>
       <c r="Y43" s="34"/>
       <c r="Z43" s="34"/>
       <c r="AA43" s="34"/>
@@ -4567,7 +4493,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>20</v>
@@ -4620,9 +4546,7 @@
       <c r="W44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X44" s="34"/>
       <c r="Y44" s="34"/>
       <c r="Z44" s="34"/>
       <c r="AA44" s="34"/>
@@ -4647,7 +4571,7 @@
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>20</v>
@@ -4700,9 +4624,7 @@
       <c r="W45" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X45" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X45" s="34"/>
       <c r="Y45" s="34"/>
       <c r="Z45" s="34"/>
       <c r="AA45" s="34"/>
@@ -4727,7 +4649,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>20</v>
@@ -4780,9 +4702,7 @@
       <c r="W46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X46" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X46" s="34"/>
       <c r="Y46" s="34"/>
       <c r="Z46" s="34"/>
       <c r="AA46" s="34"/>
@@ -4807,7 +4727,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>21</v>
@@ -4860,9 +4780,7 @@
       <c r="W47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X47" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X47" s="34"/>
       <c r="Y47" s="34"/>
       <c r="Z47" s="34"/>
       <c r="AA47" s="34"/>
@@ -4887,7 +4805,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>20</v>
@@ -4940,9 +4858,7 @@
       <c r="W48" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X48" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X48" s="34"/>
       <c r="Y48" s="34"/>
       <c r="Z48" s="34"/>
       <c r="AA48" s="34"/>
@@ -4967,7 +4883,7 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>21</v>
@@ -5020,9 +4936,7 @@
       <c r="W49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X49" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X49" s="34"/>
       <c r="Y49" s="34"/>
       <c r="Z49" s="34"/>
       <c r="AA49" s="34"/>
@@ -5047,7 +4961,7 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>20</v>
@@ -5100,9 +5014,7 @@
       <c r="W50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X50" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X50" s="34"/>
       <c r="Y50" s="34"/>
       <c r="Z50" s="34"/>
       <c r="AA50" s="34"/>
@@ -5127,7 +5039,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>20</v>
@@ -5180,9 +5092,7 @@
       <c r="W51" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X51" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X51" s="34"/>
       <c r="Y51" s="34"/>
       <c r="Z51" s="34"/>
       <c r="AA51" s="34"/>
@@ -5207,7 +5117,7 @@
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>20</v>
@@ -5260,9 +5170,7 @@
       <c r="W52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X52" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X52" s="34"/>
       <c r="Y52" s="34"/>
       <c r="Z52" s="34"/>
       <c r="AA52" s="34"/>
@@ -5287,7 +5195,7 @@
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>20</v>
@@ -5340,9 +5248,7 @@
       <c r="W53" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X53" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X53" s="34"/>
       <c r="Y53" s="34"/>
       <c r="Z53" s="34"/>
       <c r="AA53" s="34"/>
@@ -5367,7 +5273,7 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>20</v>
@@ -5420,9 +5326,7 @@
       <c r="W54" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X54" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X54" s="34"/>
       <c r="Y54" s="34"/>
       <c r="Z54" s="34"/>
       <c r="AA54" s="34"/>
@@ -5447,7 +5351,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>21</v>
@@ -5500,9 +5404,7 @@
       <c r="W55" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X55" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X55" s="34"/>
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
       <c r="AA55" s="34"/>
@@ -5527,7 +5429,7 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>21</v>
@@ -5580,9 +5482,7 @@
       <c r="W56" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X56" s="34"/>
       <c r="Y56" s="34"/>
       <c r="Z56" s="34"/>
       <c r="AA56" s="34"/>
@@ -5603,7 +5503,7 @@
       </c>
       <c r="E57" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
@@ -5660,9 +5560,7 @@
       <c r="W57" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X57" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X57" s="34"/>
       <c r="Y57" s="34"/>
       <c r="Z57" s="34"/>
       <c r="AA57" s="34"/>
@@ -5683,7 +5581,7 @@
       </c>
       <c r="E58" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
@@ -5740,9 +5638,7 @@
       <c r="W58" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X58" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X58" s="34"/>
       <c r="Y58" s="34"/>
       <c r="Z58" s="34"/>
       <c r="AA58" s="34"/>
@@ -5763,7 +5659,7 @@
       </c>
       <c r="E59" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
@@ -5820,9 +5716,7 @@
       <c r="W59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X59" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X59" s="34"/>
       <c r="Y59" s="34"/>
       <c r="Z59" s="34"/>
       <c r="AA59" s="34"/>
@@ -5847,7 +5741,7 @@
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>20</v>
@@ -5900,9 +5794,7 @@
       <c r="W60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X60" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X60" s="34"/>
       <c r="Y60" s="34"/>
       <c r="Z60" s="34"/>
       <c r="AA60" s="34"/>
@@ -5923,7 +5815,7 @@
       </c>
       <c r="E61" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
@@ -5980,9 +5872,7 @@
       <c r="W61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X61" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X61" s="34"/>
       <c r="Y61" s="34"/>
       <c r="Z61" s="34"/>
       <c r="AA61" s="34"/>
@@ -6007,7 +5897,7 @@
       </c>
       <c r="F62" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>20</v>
@@ -6060,9 +5950,7 @@
       <c r="W62" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X62" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X62" s="34"/>
       <c r="Y62" s="34"/>
       <c r="Z62" s="34"/>
       <c r="AA62" s="34"/>
@@ -6087,7 +5975,7 @@
       </c>
       <c r="F63" s="32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>20</v>
@@ -6140,9 +6028,7 @@
       <c r="W63" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X63" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X63" s="34"/>
       <c r="Y63" s="34"/>
       <c r="Z63" s="34"/>
       <c r="AA63" s="34"/>
@@ -6167,7 +6053,7 @@
       </c>
       <c r="F64" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -6220,9 +6106,7 @@
       <c r="W64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X64" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X64" s="34"/>
       <c r="Y64" s="34"/>
       <c r="Z64" s="34"/>
       <c r="AA64" s="34"/>
@@ -6247,7 +6131,7 @@
       </c>
       <c r="F65" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>21</v>
@@ -6300,9 +6184,7 @@
       <c r="W65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X65" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X65" s="34"/>
       <c r="Y65" s="34"/>
       <c r="Z65" s="34"/>
       <c r="AA65" s="34"/>
@@ -6327,7 +6209,7 @@
       </c>
       <c r="F66" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>20</v>
@@ -6380,9 +6262,7 @@
       <c r="W66" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X66" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X66" s="34"/>
       <c r="Y66" s="34"/>
       <c r="Z66" s="34"/>
       <c r="AA66" s="34"/>
@@ -6407,7 +6287,7 @@
       </c>
       <c r="F67" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>21</v>
@@ -6460,9 +6340,7 @@
       <c r="W67" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X67" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X67" s="34"/>
       <c r="Y67" s="34"/>
       <c r="Z67" s="34"/>
       <c r="AA67" s="34"/>
@@ -6487,7 +6365,7 @@
       </c>
       <c r="F68" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>20</v>
@@ -6540,9 +6418,7 @@
       <c r="W68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X68" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X68" s="34"/>
       <c r="Y68" s="34"/>
       <c r="Z68" s="34"/>
       <c r="AA68" s="34"/>
@@ -6567,7 +6443,7 @@
       </c>
       <c r="F69" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>20</v>
@@ -6620,9 +6496,7 @@
       <c r="W69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X69" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X69" s="34"/>
       <c r="Y69" s="34"/>
       <c r="Z69" s="34"/>
       <c r="AA69" s="34"/>
@@ -6643,7 +6517,7 @@
       </c>
       <c r="E70" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="32">
         <f t="shared" si="2"/>
@@ -6700,9 +6574,7 @@
       <c r="W70" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X70" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X70" s="34"/>
       <c r="Y70" s="34"/>
       <c r="Z70" s="34"/>
       <c r="AA70" s="34"/>
@@ -6723,7 +6595,7 @@
       </c>
       <c r="E71" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="32">
         <f t="shared" si="2"/>
@@ -6780,9 +6652,7 @@
       <c r="W71" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X71" s="33" t="s">
-        <v>21</v>
-      </c>
+      <c r="X71" s="34"/>
       <c r="Y71" s="34"/>
       <c r="Z71" s="34"/>
       <c r="AA71" s="34"/>
@@ -6807,7 +6677,7 @@
       </c>
       <c r="F72" s="32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>20</v>
@@ -6860,9 +6730,7 @@
       <c r="W72" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X72" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X72" s="34"/>
       <c r="Y72" s="34"/>
       <c r="Z72" s="34"/>
       <c r="AA72" s="34"/>
@@ -6887,7 +6755,7 @@
       </c>
       <c r="F73" s="32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="26" t="s">
         <v>20</v>
@@ -6940,9 +6808,7 @@
       <c r="W73" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X73" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X73" s="34"/>
       <c r="Y73" s="34"/>
       <c r="Z73" s="34"/>
       <c r="AA73" s="34"/>
@@ -6967,7 +6833,7 @@
       </c>
       <c r="F74" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>20</v>
@@ -7020,9 +6886,7 @@
       <c r="W74" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X74" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X74" s="34"/>
       <c r="Y74" s="34"/>
       <c r="Z74" s="34"/>
       <c r="AA74" s="34"/>
@@ -7047,7 +6911,7 @@
       </c>
       <c r="F75" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>20</v>
@@ -7100,9 +6964,7 @@
       <c r="W75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X75" s="34"/>
       <c r="Y75" s="34"/>
       <c r="Z75" s="34"/>
       <c r="AA75" s="34"/>
@@ -7127,7 +6989,7 @@
       </c>
       <c r="F76" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>20</v>
@@ -7180,9 +7042,7 @@
       <c r="W76" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X76" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X76" s="34"/>
       <c r="Y76" s="34"/>
       <c r="Z76" s="34"/>
       <c r="AA76" s="34"/>
@@ -7207,7 +7067,7 @@
       </c>
       <c r="F77" s="32">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>20</v>
@@ -7260,9 +7120,7 @@
       <c r="W77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X77" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X77" s="34"/>
       <c r="Y77" s="34"/>
       <c r="Z77" s="34"/>
       <c r="AA77" s="34"/>
@@ -7287,7 +7145,7 @@
       </c>
       <c r="F78" s="32">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" s="26" t="s">
         <v>20</v>
@@ -7340,9 +7198,7 @@
       <c r="W78" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="X78" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="X78" s="34"/>
       <c r="Y78" s="34"/>
       <c r="Z78" s="34"/>
       <c r="AA78" s="34"/>
